--- a/public/assets/theme/import_template.xlsx
+++ b/public/assets/theme/import_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>slug</t>
   </si>
@@ -46,9 +46,6 @@
     <t>categoryImport3</t>
   </si>
   <si>
-    <t>category13</t>
-  </si>
-  <si>
     <t>&lt;p&gt;categoryImport3&lt;/p&gt;</t>
   </si>
   <si>
@@ -62,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -76,17 +73,7 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -109,21 +96,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -343,7 +324,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="24.0"/>
-    <col customWidth="1" min="2" max="2" width="12.29"/>
+    <col customWidth="1" min="2" max="2" width="19.14"/>
     <col customWidth="1" min="3" max="3" width="18.86"/>
     <col customWidth="1" min="4" max="4" width="39.29"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
@@ -367,8 +348,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -386,14 +367,14 @@
       <c r="E2" s="1">
         <v>2.0</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -402,38 +383,38 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1.0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -657,7 +638,7 @@
     <row r="218" ht="14.25" customHeight="1"/>
     <row r="219" ht="14.25" customHeight="1"/>
     <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -1437,7 +1418,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/public/assets/theme/import_template.xlsx
+++ b/public/assets/theme/import_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>slug</t>
   </si>
@@ -37,12 +37,18 @@
     <t>upload/category/photo.png</t>
   </si>
   <si>
+    <t>Không hoạt động</t>
+  </si>
+  <si>
     <t>categoryImport2</t>
   </si>
   <si>
     <t>&lt;p&gt;categoryImport2&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Hoạt động</t>
+  </si>
+  <si>
     <t>categoryImport3</t>
   </si>
   <si>
@@ -53,13 +59,16 @@
   </si>
   <si>
     <t>&lt;p&gt;categoryImport4&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Tạm dừng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -69,6 +78,11 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -102,10 +116,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,7 +341,7 @@
     <col customWidth="1" min="2" max="2" width="19.14"/>
     <col customWidth="1" min="3" max="3" width="18.86"/>
     <col customWidth="1" min="4" max="4" width="39.29"/>
-    <col customWidth="1" min="5" max="5" width="15.0"/>
+    <col customWidth="1" min="5" max="5" width="18.71"/>
     <col customWidth="1" min="6" max="6" width="23.71"/>
     <col customWidth="1" min="7" max="7" width="8.71"/>
   </cols>
@@ -364,63 +378,63 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
-        <v>2.0</v>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>1.0</v>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
-        <v>2.0</v>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
